--- a/scripts/masters-2019.xlsx
+++ b/scripts/masters-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867EB78-A316-9C4E-B3FD-A2F1B9B4EDDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3034CA38-9326-9844-A383-272A2F1E6078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -560,6 +560,30 @@
   </si>
   <si>
     <t>Drew Serruto</t>
+  </si>
+  <si>
+    <t>Tony Drake</t>
+  </si>
+  <si>
+    <t>Nick Brohas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justin Rose </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hideki Matsuyama </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billy Horschel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Couples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Kaymer </t>
+  </si>
+  <si>
+    <t>Steven Laake</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1304,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="10" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -58305,10 +58329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B9B154-68BA-4940-AEBD-3CDD0286C898}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -59249,7 +59273,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -59348,6 +59372,153 @@
       </c>
       <c r="C125" s="37" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/masters-2019.xlsx
+++ b/scripts/masters-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE09619-64CB-9040-87CD-C4787879482C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4568CDF-1131-B84A-AC7A-93A9DB6DA58E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -538,43 +538,10 @@
     </r>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Matt Scharrer</t>
   </si>
   <si>
-    <t>JustinRose</t>
-  </si>
-  <si>
-    <t>Tim Cableck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rory McIlroy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiger Woods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan Spieth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Scott </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Day </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keegan Bradley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian Poulter </t>
-  </si>
-  <si>
     <t>Sean Buckle</t>
-  </si>
-  <si>
-    <t>Unknown Player</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E9A08-C76A-B74D-B468-961941A5C498}">
   <dimension ref="B2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="K50" sqref="K50:M50"/>
     </sheetView>
   </sheetViews>
@@ -30976,10 +30943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B9B154-68BA-4940-AEBD-3CDD0286C898}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:XFD151"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32170,7 +32137,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -32181,7 +32148,7 @@
         <v>41</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -32219,7 +32186,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="30" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -32267,53 +32234,7 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B162" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C162" s="19" t="s">
-        <v>164</v>
-      </c>
+      <c r="A158" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
